--- a/SpaOnline/Inventarios - Muestreo Datos.xlsx
+++ b/SpaOnline/Inventarios - Muestreo Datos.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580ABDF-3814-4AE0-A1C4-99B2A7F43949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5EE74D-2E82-462C-952C-2E38757D41CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Inventario" sheetId="5" r:id="rId3"/>
-    <sheet name="Fabricante" sheetId="3" r:id="rId4"/>
+    <sheet name="Productos" sheetId="3" r:id="rId4"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -59,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -107,6 +110,18 @@
   </si>
   <si>
     <t>Objeto de dominio que contiene la informacion de los inventarios que tienen las sedes del spa</t>
+  </si>
+  <si>
+    <t>Crema Coporal</t>
+  </si>
+  <si>
+    <t>Protector Solar</t>
+  </si>
+  <si>
+    <t>Crema de Manos</t>
+  </si>
+  <si>
+    <t>Cantidad Productos</t>
   </si>
 </sst>
 </file>
@@ -186,13 +201,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -203,6 +214,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -268,6 +291,44 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Productos"/>
+      <sheetName val="Fabricante"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>CeraV</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Lemar</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>MediPiel</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -611,10 +672,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="6" s="9" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" s="7" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -625,69 +686,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
+      <c r="C14" s="9" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
+    <hyperlink ref="A3" location="Productos!A1" display="Productos" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
-    <hyperlink ref="A3" location="Fabricante!A1" display="Fabricante" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId2"/>
@@ -698,8 +760,88 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="str">
+        <f>B2&amp;"-"&amp;C2</f>
+        <v>10-Crema de Manos</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>50</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
+        <v>50-Protector Solar</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1">
+        <v>100</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f t="shared" si="0"/>
+        <v>100-Crema Coporal</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,16 +853,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -728,94 +870,48 @@
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="6" t="str">
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>[1]Fabricante!C2</f>
+        <v>CeraV</v>
+      </c>
+      <c r="D2" s="4" t="str">
         <f>B2&amp;"-"&amp;C2</f>
-        <v>-</v>
+        <v>Crema de Manos-CeraV</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="6" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
-        <v>-</v>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>[1]Fabricante!C3</f>
+        <v>Lemar</v>
+      </c>
+      <c r="D3" s="4" t="str">
+        <f>B3&amp;"-"&amp;C3</f>
+        <v>Protector Solar-Lemar</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>-</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="6">
-        <f>B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6">
-        <f t="shared" ref="C3:C4" si="0">B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>[1]Fabricante!C4</f>
+        <v>MediPiel</v>
+      </c>
+      <c r="D4" s="4" t="str">
+        <f>B4&amp;"-"&amp;C4</f>
+        <v>Crema Coporal-MediPiel</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/Inventarios - Muestreo Datos.xlsx
+++ b/SpaOnline/Inventarios - Muestreo Datos.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B5EE74D-2E82-462C-952C-2E38757D41CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC151BCF-08BE-47D1-866F-34F469A0DF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Inventario" sheetId="5" r:id="rId3"/>
-    <sheet name="Productos" sheetId="3" r:id="rId4"/>
+    <sheet name="ProductoInventario" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -76,21 +76,12 @@
     <t>Contextro</t>
   </si>
   <si>
-    <t>Fabricante</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la informacion de todas las empresas que fabrican marcas de productos de tecnologia</t>
-  </si>
-  <si>
     <t>Propio</t>
   </si>
   <si>
     <t>Identificador</t>
   </si>
   <si>
-    <t>Nombre</t>
-  </si>
-  <si>
     <t>Combinacion única</t>
   </si>
   <si>
@@ -122,6 +113,24 @@
   </si>
   <si>
     <t>Cantidad Productos</t>
+  </si>
+  <si>
+    <t>PrecioCompraU</t>
+  </si>
+  <si>
+    <t>FechaCompra</t>
+  </si>
+  <si>
+    <t>Combinacion Unica</t>
+  </si>
+  <si>
+    <t>Producto Inventario</t>
+  </si>
+  <si>
+    <t>inventario</t>
+  </si>
+  <si>
+    <t>objeto de dominio gestiona el inventario de productos en el spa.</t>
   </si>
 </sst>
 </file>
@@ -201,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -223,8 +232,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -302,30 +321,36 @@
     <sheetNames>
       <sheetName val="Modelo de Dominio Anemico"/>
       <sheetName val="Objetos de dominio"/>
-      <sheetName val="Productos"/>
       <sheetName val="Fabricante"/>
+      <sheetName val="Producto"/>
+      <sheetName val="ProductoporFabricante"/>
+      <sheetName val="Categoria"/>
+      <sheetName val="ProductoInventario"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
-          <cell r="C2" t="str">
-            <v>CeraV</v>
+          <cell r="E2" t="str">
+            <v>Loción Corporal Hidratante-Cuidado corporal</v>
           </cell>
         </row>
         <row r="3">
-          <cell r="C3" t="str">
-            <v>Lemar</v>
+          <cell r="E3" t="str">
+            <v>Crema Facial Anti-edad-Cuidado facial</v>
           </cell>
         </row>
         <row r="4">
-          <cell r="C4" t="str">
-            <v>MediPiel</v>
+          <cell r="E4" t="str">
+            <v>Crema para masajes-Masajes</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -666,7 +691,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
@@ -687,7 +712,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,7 +720,7 @@
     <col min="1" max="1" width="10.42578125" style="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" style="9" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
@@ -715,40 +740,40 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
-        <v>11</v>
+      <c r="A3" s="15" t="s">
+        <v>20</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="9" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A3" location="Productos!A1" display="Productos" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
+    <hyperlink ref="A3" location="ProductoInventario!A1" display="Producto Inventario" xr:uid="{B6196C86-5494-41DF-B9BA-21C812FFCEC4}"/>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{F8E25110-D015-427A-BE9B-07EAE75C98E4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -760,7 +785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -774,16 +799,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -794,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="str">
         <f>B2&amp;"-"&amp;C2</f>
@@ -809,7 +834,7 @@
         <v>50</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D3" s="4" t="str">
         <f t="shared" ref="D3:D4" si="0">B3&amp;"-"&amp;C3</f>
@@ -824,7 +849,7 @@
         <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="str">
         <f t="shared" si="0"/>
@@ -838,80 +863,93 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+        <v>17</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>[1]Fabricante!C2</f>
-        <v>CeraV</v>
-      </c>
-      <c r="D2" s="4" t="str">
-        <f>B2&amp;"-"&amp;C2</f>
-        <v>Crema de Manos-CeraV</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B2" s="14" t="str">
+        <f>[1]Producto!E2</f>
+        <v>Loción Corporal Hidratante-Cuidado corporal</v>
+      </c>
+      <c r="C2" s="11">
+        <v>12000</v>
+      </c>
+      <c r="D2" s="12">
+        <v>45369</v>
+      </c>
+      <c r="E2" s="13" t="str">
+        <f>B2&amp;"-"&amp;C2&amp;"-"&amp;D2</f>
+        <v>Loción Corporal Hidratante-Cuidado corporal-12000-45369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>[1]Fabricante!C3</f>
-        <v>Lemar</v>
-      </c>
-      <c r="D3" s="4" t="str">
-        <f>B3&amp;"-"&amp;C3</f>
-        <v>Protector Solar-Lemar</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>[1]Fabricante!C4</f>
-        <v>MediPiel</v>
-      </c>
-      <c r="D4" s="4" t="str">
-        <f>B4&amp;"-"&amp;C4</f>
-        <v>Crema Coporal-MediPiel</v>
+      <c r="B3" s="14" t="str">
+        <f>[1]Producto!E3</f>
+        <v>Crema Facial Anti-edad-Cuidado facial</v>
+      </c>
+      <c r="C3" s="11">
+        <v>20000</v>
+      </c>
+      <c r="D3" s="12">
+        <v>45346</v>
+      </c>
+      <c r="E3" s="13" t="str">
+        <f t="shared" ref="E3:E4" si="0">B3&amp;"-"&amp;C3&amp;"-"&amp;D3</f>
+        <v>Crema Facial Anti-edad-Cuidado facial-20000-45346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="str">
+        <f>[1]Producto!E4</f>
+        <v>Crema para masajes-Masajes</v>
+      </c>
+      <c r="C4" s="11">
+        <v>14500</v>
+      </c>
+      <c r="D4" s="12">
+        <v>45262</v>
+      </c>
+      <c r="E4" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>Crema para masajes-Masajes-14500-45262</v>
       </c>
     </row>
   </sheetData>
